--- a/INTLINE/data/536/BPS/GOODS_historical.xlsx
+++ b/INTLINE/data/536/BPS/GOODS_historical.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GOODS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GOODS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Raw materials &amp; auxilliary goods</t>
+  </si>
+  <si>
+    <t>Capital goods</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +60,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +79,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,333 +376,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:34">
+      <c r="B1" s="1">
         <v>1989</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1990</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1991</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1992</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1993</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1994</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1995</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1996</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1997</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1998</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1999</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>2000</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>2001</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>2002</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>2003</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>2004</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>2005</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>2006</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>2007</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>2008</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>2009</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>2010</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>2011</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>2012</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>2013</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>2014</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>2015</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>2016</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>2017</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>2018</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>2019</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>2020</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Raw materials &amp; auxilliary goods</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:34">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>11905.5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>14893.1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>17233.8</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>18700</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>20034.8</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>23133.6</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>29586.6</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>30469.7</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>30229.5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>19611.8</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>18475</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>26018.7</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>23879.4</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>24227.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>25496.3</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>36204.2</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>44792</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>47171.4</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>56484.7</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>99492.7</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>69638.10000000001</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>98755.10000000001</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>130934.3</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>140126.1</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>141957.9</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>136208.6</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>107081</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>100945.8</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>117851.3</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>141581.2</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>126355.5</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>103209.9</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>147380.2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Capital goods</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:34">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>3765.5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6067</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>7676.6</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>7366.8</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>7146.9</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>7419.7</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>8691.700000000001</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>9652.9</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>9284</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>5807.5</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>3060</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>4777.4</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>4831.5</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>4410.9</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>4191.6</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>6533.8</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>8288.4</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>9155.9</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>11449.6</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>21400.9</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>20438.5</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>26916.6</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>33108.4</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>38154.8</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>31531.9</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>29303</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>24737.3</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>22355.3</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>25059.1</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>29948.8</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>28465.6</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>23702.9</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>28627</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/536/BPS/GOODS_historical.xlsx
+++ b/INTLINE/data/536/BPS/GOODS_historical.xlsx
@@ -1,51 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GOODS" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GOODS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Raw materials &amp; auxilliary goods</t>
-  </si>
-  <si>
-    <t>Capital goods</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -79,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -376,323 +353,333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Raw materials &amp; auxilliary goods</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>11905.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>14893.1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>17233.8</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>18700</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>20034.8</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>23133.6</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>29586.6</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>30469.7</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>30229.5</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>19611.8</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>18475</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>26018.7</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>23879.4</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>24227.5</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>25496.3</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>36204.2</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>44792</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>47171.4</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>56484.7</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>99492.7</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>69638.10000000001</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>98755.10000000001</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>130934.3</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>140126.1</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>141957.9</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>136208.6</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>107081</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>100945.8</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>117851.3</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>141581.2</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>126355.5</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>103209.9</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>147380.2</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Capital goods</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>3765.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>6067</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>7676.6</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>7366.8</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>7146.9</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>7419.7</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>8691.700000000001</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>9652.9</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>9284</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>5807.5</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>3060</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>4777.4</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>4831.5</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>4410.9</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>4191.6</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>6533.8</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>8288.4</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>9155.9</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>11449.6</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>21400.9</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>20438.5</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>26916.6</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>33108.4</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>38154.8</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>31531.9</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>29303</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>24737.3</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>22355.3</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>25059.1</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>29948.8</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>28465.6</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>23702.9</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>28627</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>